--- a/data/trans_dic/P33_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33_R-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07742902286161224</v>
+        <v>0.07825442904267833</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1267225155953873</v>
+        <v>0.1273926977351351</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1288505285737368</v>
+        <v>0.1298458306965147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04681822083065633</v>
+        <v>0.04756369713000757</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09468294151664584</v>
+        <v>0.09663456853210964</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1862130825689226</v>
+        <v>0.183182866236175</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1533212123273092</v>
+        <v>0.1508447090080841</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.113574386617236</v>
+        <v>0.1129357713435414</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09328256004610926</v>
+        <v>0.09372166803411279</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1669591507212023</v>
+        <v>0.1656939366024911</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.149462671137907</v>
+        <v>0.1517092067944042</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09188059516994651</v>
+        <v>0.09417070004457147</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.135195936890634</v>
+        <v>0.1364063547573824</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1950899528243569</v>
+        <v>0.1935485262428826</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2075063525937234</v>
+        <v>0.2052797948183951</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1431257443814569</v>
+        <v>0.1438630643430376</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1535239762560809</v>
+        <v>0.1571419059158188</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2644767543169053</v>
+        <v>0.2657708816237822</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2293911877621991</v>
+        <v>0.2254792742474885</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2227994258064009</v>
+        <v>0.2249798370175962</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1356318656909618</v>
+        <v>0.1343730112167216</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2180689801751109</v>
+        <v>0.2185088126207727</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2037382994404071</v>
+        <v>0.2014019124789894</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.166243543342411</v>
+        <v>0.1663781827500143</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09510443016683193</v>
+        <v>0.09653705302846143</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1662093089896305</v>
+        <v>0.1641121606039971</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1468712177680365</v>
+        <v>0.148009369970076</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1041361466247751</v>
+        <v>0.1092551245920876</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1261415479688699</v>
+        <v>0.1247264693343934</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1740426474487636</v>
+        <v>0.1756485120267754</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1285108632680942</v>
+        <v>0.1252719791604471</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1595598368765069</v>
+        <v>0.1585570511685548</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1182015379577849</v>
+        <v>0.1184781730840838</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1782077432496433</v>
+        <v>0.1789866399939319</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1421510492462604</v>
+        <v>0.1438872471707456</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1438791427469876</v>
+        <v>0.1466317091338682</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1498354574040295</v>
+        <v>0.147652771638059</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.226011373283757</v>
+        <v>0.2262822875643564</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2101386202739892</v>
+        <v>0.2120336371370614</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1922406762989035</v>
+        <v>0.1950280269415979</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.185839584803643</v>
+        <v>0.1820320270327829</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2442637882993888</v>
+        <v>0.2397132927723265</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1861345821002066</v>
+        <v>0.1857521287673894</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2383007644044958</v>
+        <v>0.2348599306699042</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1558960634733169</v>
+        <v>0.153954092043327</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2236629495360065</v>
+        <v>0.2263134347304656</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1880543678579033</v>
+        <v>0.1883932322214091</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2029137250121461</v>
+        <v>0.2042568966649864</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1364860869896475</v>
+        <v>0.1335548519551135</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1835879408357424</v>
+        <v>0.1817549027422471</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1649087701407461</v>
+        <v>0.1665769758118859</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1631945588288132</v>
+        <v>0.1640997490894084</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1407133524937736</v>
+        <v>0.1402038336869232</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1926850378638836</v>
+        <v>0.1982131143355554</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1801769581371079</v>
+        <v>0.1794934812155841</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2033166202242832</v>
+        <v>0.2045907497655999</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1431670745380894</v>
+        <v>0.1453074085580817</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2000224044216896</v>
+        <v>0.2015631547214785</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1818841288551262</v>
+        <v>0.1823078282144143</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1942417611117718</v>
+        <v>0.1933201518991803</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1951674172358105</v>
+        <v>0.1916868508360738</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.249318090450656</v>
+        <v>0.2454738642759893</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2292049175360631</v>
+        <v>0.2282432495623988</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2337386502006627</v>
+        <v>0.232860073995048</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1964309999973536</v>
+        <v>0.1969624551126241</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2594210320266201</v>
+        <v>0.2607142320088814</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2448074129384621</v>
+        <v>0.2423627978446248</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2600991200256393</v>
+        <v>0.2651235756991413</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1857982667796726</v>
+        <v>0.1854716421716737</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2456294577033704</v>
+        <v>0.2462961192419597</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2258158730025913</v>
+        <v>0.2266529951395652</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2393641799058416</v>
+        <v>0.238078586522727</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2747806611035657</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.285257532461968</v>
+        <v>0.2852575324619681</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1919133056523573</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1389396861970373</v>
+        <v>0.139976819410304</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2295578531843463</v>
+        <v>0.22514675690936</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1716895239748426</v>
+        <v>0.1780120718367489</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2434896539973689</v>
+        <v>0.2412717580906907</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1760181363908387</v>
+        <v>0.1773676138024024</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2936339685980052</v>
+        <v>0.2915164637816856</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2351714092321189</v>
+        <v>0.2411562304793352</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2605832008715744</v>
+        <v>0.2591407107559705</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1681530803303622</v>
+        <v>0.1675303588507231</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2723028484824677</v>
+        <v>0.2709013288930424</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2169867095675205</v>
+        <v>0.2154367549246618</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2588285336189616</v>
+        <v>0.2613706591128253</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2122710444786609</v>
+        <v>0.208402284029292</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3062422367355521</v>
+        <v>0.3026933958286994</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2417120815754948</v>
+        <v>0.2422442674005786</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3166570063374059</v>
+        <v>0.3138157021973715</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2483284948898861</v>
+        <v>0.2514607789633029</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3748639554064312</v>
+        <v>0.3720575486687201</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3090975386346923</v>
+        <v>0.3139842283047569</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3152861262685986</v>
+        <v>0.3130631466325796</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2173339590910752</v>
+        <v>0.2177480204129349</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3297505110871033</v>
+        <v>0.3259728107924853</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2673838449909285</v>
+        <v>0.267558881731474</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3030948176221597</v>
+        <v>0.3018378988927863</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.172435483882946</v>
+        <v>0.1739290500459111</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2225627697146479</v>
+        <v>0.2176496513773117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2070558976740247</v>
+        <v>0.2033211422501176</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.251397718729268</v>
+        <v>0.2518771232618081</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2279142262625837</v>
+        <v>0.2181483388303085</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3590338265459838</v>
+        <v>0.361825515933288</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3034919951783084</v>
+        <v>0.3022675056192687</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.355317946259219</v>
+        <v>0.3570680535664498</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2120633075865185</v>
+        <v>0.2116296111509622</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3015795846989933</v>
+        <v>0.3057777470661038</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.267099744063419</v>
+        <v>0.2688726682950435</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3163590294919241</v>
+        <v>0.3151451792291217</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2593538048940362</v>
+        <v>0.2575093157639353</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3099926390396204</v>
+        <v>0.3121130373039455</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2920791772990103</v>
+        <v>0.2900680181061798</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3258181016716898</v>
+        <v>0.3243283649051532</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3147325608060141</v>
+        <v>0.3102358547188603</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4551286692071234</v>
+        <v>0.4566319824154853</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3913266559622717</v>
+        <v>0.3927711927319922</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4190395425449306</v>
+        <v>0.4183833127166409</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2688715439084752</v>
+        <v>0.271857166755164</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3687017459734652</v>
+        <v>0.3748667919359535</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3294822235421724</v>
+        <v>0.3327069508394533</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3655132276278175</v>
+        <v>0.359843991347205</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.4221446647694866</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3763651360092279</v>
+        <v>0.3763651360092278</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.295013222955005</v>
+        <v>0.3069724363187272</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3986273110823586</v>
+        <v>0.3970691083395839</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.312630064453248</v>
+        <v>0.3133061423881073</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3125072896262895</v>
+        <v>0.3102941457251063</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3844015787443875</v>
+        <v>0.3822037148025418</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4123986609026361</v>
+        <v>0.4129542505100841</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4188158914266077</v>
+        <v>0.4199668487523364</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3681529742238713</v>
+        <v>0.3690466348634602</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3593537453034767</v>
+        <v>0.3583737483846459</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4241019620285611</v>
+        <v>0.4246014727992068</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3836473855244352</v>
+        <v>0.3841336174713078</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.35165108512308</v>
+        <v>0.3531201748106156</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4080297109359076</v>
+        <v>0.4161427504979511</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5179880522934718</v>
+        <v>0.516081695343007</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4209015692096423</v>
+        <v>0.4205582975009539</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3920352580159231</v>
+        <v>0.390862963918398</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4841369312448343</v>
+        <v>0.4840138518764538</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5174159225667394</v>
+        <v>0.5123429869780496</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5254577717915653</v>
+        <v>0.5237835456694611</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.43712478772128</v>
+        <v>0.4337808290917626</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4363726778664472</v>
+        <v>0.4337208636557885</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5027821440726365</v>
+        <v>0.5037463981794799</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4633150599394979</v>
+        <v>0.4582931239845865</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4028336706194867</v>
+        <v>0.4048972897355133</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.4257660930491701</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3927383056566738</v>
+        <v>0.3927383056566737</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.5363099375168335</v>
@@ -1513,7 +1513,7 @@
         <v>0.4464328937648509</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.4449042095939746</v>
+        <v>0.4449042095939748</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3523914446606344</v>
+        <v>0.3583609580344312</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4042778141278002</v>
+        <v>0.4067250877702635</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3710003993915212</v>
+        <v>0.3693205305499908</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.344056954448163</v>
+        <v>0.3506494385200986</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4753564276925024</v>
+        <v>0.4756038057075662</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.505898266405342</v>
+        <v>0.5115910861580986</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4023133619138081</v>
+        <v>0.4003374142197925</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4455256187751793</v>
+        <v>0.4459768429633569</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4457755406933294</v>
+        <v>0.4480727820785658</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4894247212104257</v>
+        <v>0.4847838970413109</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4052943017144772</v>
+        <v>0.4068520264523085</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4152000528430441</v>
+        <v>0.4152517063426944</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.487540449240244</v>
+        <v>0.4919108835545258</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.543418053194541</v>
+        <v>0.5429690063639099</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4863723654075067</v>
+        <v>0.4817684583104474</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4384482462085436</v>
+        <v>0.4420202489039194</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5921668175827572</v>
+        <v>0.5958785445899816</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6165552759525031</v>
+        <v>0.6130081830477087</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5173838761056093</v>
+        <v>0.5179910843442411</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5163704342695428</v>
+        <v>0.5154233917325657</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5353491198678411</v>
+        <v>0.5388478474756037</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5701343926310521</v>
+        <v>0.5716723234918731</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4847259348709498</v>
+        <v>0.4874816080339017</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4720559397336063</v>
+        <v>0.4725222085154501</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.2852418640555737</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3071732958456827</v>
+        <v>0.3071732958456826</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2133646904423134</v>
@@ -1649,7 +1649,7 @@
         <v>0.259270455271246</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.2769846850682214</v>
+        <v>0.2769846850682213</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1715312854670004</v>
+        <v>0.1723010670209636</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2447058896248633</v>
+        <v>0.2448535158396208</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2185916074531188</v>
+        <v>0.2172433561607853</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2290175119960609</v>
+        <v>0.2306638121045545</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2246427540935662</v>
+        <v>0.2258865220161908</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3104001888165699</v>
+        <v>0.309624652132137</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2694438467051394</v>
+        <v>0.2696751715542989</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2942042599296658</v>
+        <v>0.2929444481281129</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2029643550504572</v>
+        <v>0.2031120857314236</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2812791370273909</v>
+        <v>0.2822870209652711</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2485149825492851</v>
+        <v>0.2487027596238129</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2662657736395296</v>
+        <v>0.2666667373365597</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1988603181519982</v>
+        <v>0.200546115789403</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2746936813146051</v>
+        <v>0.2751829376834246</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2477010751105728</v>
+        <v>0.2479962988855136</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2602292004054756</v>
+        <v>0.2617179488535311</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2553810262365986</v>
+        <v>0.2559794162515445</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3425454331336784</v>
+        <v>0.3413898471918803</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3001694791170503</v>
+        <v>0.3012940722239597</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3218693761882977</v>
+        <v>0.3192707727500052</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2238148681723865</v>
+        <v>0.2235254337148921</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3040333240577391</v>
+        <v>0.3048555372280405</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.269457914072071</v>
+        <v>0.270131333701351</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2866110853565091</v>
+        <v>0.2867931468849968</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>37761</v>
+        <v>38163</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>57307</v>
+        <v>57611</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>54048</v>
+        <v>54466</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>17972</v>
+        <v>18258</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>43998</v>
+        <v>44904</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>79935</v>
+        <v>78634</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>60532</v>
+        <v>59555</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>40321</v>
+        <v>40094</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>88839</v>
+        <v>89257</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>147173</v>
+        <v>146058</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>121703</v>
+        <v>123532</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>67889</v>
+        <v>69581</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>65932</v>
+        <v>66523</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>88225</v>
+        <v>87528</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>87041</v>
+        <v>86107</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>54942</v>
+        <v>55225</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>71340</v>
+        <v>73021</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>113531</v>
+        <v>114087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>90565</v>
+        <v>89021</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>79097</v>
+        <v>79871</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>129171</v>
+        <v>127972</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>192226</v>
+        <v>192614</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>165898</v>
+        <v>163996</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>122835</v>
+        <v>122935</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>69070</v>
+        <v>70111</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>114045</v>
+        <v>112606</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>86727</v>
+        <v>87399</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>47939</v>
+        <v>50295</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>78325</v>
+        <v>77446</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>106025</v>
+        <v>107003</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>72186</v>
+        <v>70367</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>78048</v>
+        <v>77558</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>159239</v>
+        <v>159612</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>230840</v>
+        <v>231849</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>163788</v>
+        <v>165788</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>136612</v>
+        <v>139226</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>108819</v>
+        <v>107234</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>155078</v>
+        <v>155264</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>124086</v>
+        <v>125205</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>88497</v>
+        <v>89781</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>115393</v>
+        <v>113029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>148803</v>
+        <v>146031</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>104555</v>
+        <v>104340</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>116564</v>
+        <v>114881</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>210020</v>
+        <v>207404</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>289720</v>
+        <v>293153</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>216678</v>
+        <v>217069</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>192665</v>
+        <v>193940</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>85435</v>
+        <v>83601</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>124660</v>
+        <v>123416</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>110078</v>
+        <v>111192</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>98848</v>
+        <v>99396</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>96655</v>
+        <v>96305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>136594</v>
+        <v>140513</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>119167</v>
+        <v>118714</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>121424</v>
+        <v>122185</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>187958</v>
+        <v>190768</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>277615</v>
+        <v>279754</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>241705</v>
+        <v>242268</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>233658</v>
+        <v>232550</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>122168</v>
+        <v>119989</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>169293</v>
+        <v>166682</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>152997</v>
+        <v>152355</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>141577</v>
+        <v>141045</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>134927</v>
+        <v>135292</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>183903</v>
+        <v>184820</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>161912</v>
+        <v>160295</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>155336</v>
+        <v>158337</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>243926</v>
+        <v>243497</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>340915</v>
+        <v>341840</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>300086</v>
+        <v>301198</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>287937</v>
+        <v>286391</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>71183</v>
+        <v>71714</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>140619</v>
+        <v>137917</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>110532</v>
+        <v>114602</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>166775</v>
+        <v>165256</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>90224</v>
+        <v>90916</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>180937</v>
+        <v>179632</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>151924</v>
+        <v>155790</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>188338</v>
+        <v>187296</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>172342</v>
+        <v>171704</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>334596</v>
+        <v>332874</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>279869</v>
+        <v>277870</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>364352</v>
+        <v>367930</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>108753</v>
+        <v>106771</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>187593</v>
+        <v>185419</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>155611</v>
+        <v>155954</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>216890</v>
+        <v>214944</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>127289</v>
+        <v>128895</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>230991</v>
+        <v>229261</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>199681</v>
+        <v>202838</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>227875</v>
+        <v>226269</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>222749</v>
+        <v>223173</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>405186</v>
+        <v>400544</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>344872</v>
+        <v>345097</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>426665</v>
+        <v>424896</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>65741</v>
+        <v>66310</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>95052</v>
+        <v>92954</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>98709</v>
+        <v>96928</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>149188</v>
+        <v>149473</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>91364</v>
+        <v>87449</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>160040</v>
+        <v>161284</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>150472</v>
+        <v>149865</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>209207</v>
+        <v>210237</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>165858</v>
+        <v>165519</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>263228</v>
+        <v>266892</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>259762</v>
+        <v>261486</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>374007</v>
+        <v>372572</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>98878</v>
+        <v>98175</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>132392</v>
+        <v>133297</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>139241</v>
+        <v>138282</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>193352</v>
+        <v>192468</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>126166</v>
+        <v>124364</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>202874</v>
+        <v>203544</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>194021</v>
+        <v>194737</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>246725</v>
+        <v>246339</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>210289</v>
+        <v>212624</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>321814</v>
+        <v>327195</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>320431</v>
+        <v>323567</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>432118</v>
+        <v>425416</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>85487</v>
+        <v>88952</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>123489</v>
+        <v>123006</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>104522</v>
+        <v>104748</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>125220</v>
+        <v>124333</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>130004</v>
+        <v>129261</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>145620</v>
+        <v>145816</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>157807</v>
+        <v>158241</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>158032</v>
+        <v>158415</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>225664</v>
+        <v>225048</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>281134</v>
+        <v>281465</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>272820</v>
+        <v>273166</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>291852</v>
+        <v>293072</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>118236</v>
+        <v>120587</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>160465</v>
+        <v>159875</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>140720</v>
+        <v>140605</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>157086</v>
+        <v>156616</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>163735</v>
+        <v>163693</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>182702</v>
+        <v>180911</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>197989</v>
+        <v>197358</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>187638</v>
+        <v>186203</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>274029</v>
+        <v>272364</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>333290</v>
+        <v>333929</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>329474</v>
+        <v>325903</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>334331</v>
+        <v>336044</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>72717</v>
+        <v>73949</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>99747</v>
+        <v>100350</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>94706</v>
+        <v>94278</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>103042</v>
+        <v>105017</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>158288</v>
+        <v>158370</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>195552</v>
+        <v>197753</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>158304</v>
+        <v>157527</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>196665</v>
+        <v>196864</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>240425</v>
+        <v>241664</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>309939</v>
+        <v>307001</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>262938</v>
+        <v>263949</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>307628</v>
+        <v>307666</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>100605</v>
+        <v>101507</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>134076</v>
+        <v>133966</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>124158</v>
+        <v>122982</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>131312</v>
+        <v>132382</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>197184</v>
+        <v>198420</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>238326</v>
+        <v>236955</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>203583</v>
+        <v>203822</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>227937</v>
+        <v>227519</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>288735</v>
+        <v>290622</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>361051</v>
+        <v>362025</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>314470</v>
+        <v>316258</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>349753</v>
+        <v>350099</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>553978</v>
+        <v>556464</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>835318</v>
+        <v>835822</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>740497</v>
+        <v>735930</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>785183</v>
+        <v>790827</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>754157</v>
+        <v>758332</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1101597</v>
+        <v>1098845</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>951137</v>
+        <v>951954</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1066079</v>
+        <v>1061514</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1336874</v>
+        <v>1337847</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1958411</v>
+        <v>1965428</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1719124</v>
+        <v>1720423</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1877729</v>
+        <v>1880557</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>642240</v>
+        <v>647685</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>937683</v>
+        <v>939353</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>839108</v>
+        <v>840108</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>892192</v>
+        <v>897296</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>857349</v>
+        <v>859358</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1215679</v>
+        <v>1211578</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1059599</v>
+        <v>1063569</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1166327</v>
+        <v>1156910</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1474211</v>
+        <v>1472305</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2116837</v>
+        <v>2122562</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1863999</v>
+        <v>1868657</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2021206</v>
+        <v>2022490</v>
       </c>
     </row>
     <row r="36">
